--- a/leanCrm/datanew/physicalAreas/PhysicalAreasTypes/relations/PhysicalAreasTypesR5PhysicalAreas.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalAreasTypes/relations/PhysicalAreasTypesR5PhysicalAreas.xlsx
@@ -1532,7 +1532,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2071,7 +2071,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
